--- a/DM/seed/TX_CAMPING_CFG.xlsx
+++ b/DM/seed/TX_CAMPING_CFG.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43013A64-AE79-4290-8C15-6B87F70FF20A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED346A18-1194-463B-BF92-C5D94D5A9A25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
   <si>
     <t>Adult (13 and over)</t>
   </si>
@@ -72,27 +72,9 @@
     <t>After Spacers (Days)</t>
   </si>
   <si>
-    <t>Air Conditioning</t>
-  </si>
-  <si>
-    <t>Allow General Public</t>
-  </si>
-  <si>
-    <t>Amperage</t>
-  </si>
-  <si>
-    <t>Base Occupancy</t>
-  </si>
-  <si>
     <t>Before Spacers (Days)</t>
   </si>
   <si>
-    <t>Bunkbed</t>
-  </si>
-  <si>
-    <t>Cable TV Access</t>
-  </si>
-  <si>
     <t>Ceiling Fans</t>
   </si>
   <si>
@@ -102,81 +84,18 @@
     <t>Checkout Time</t>
   </si>
   <si>
-    <t>Cleaning Status</t>
-  </si>
-  <si>
     <t>Coffee Maker</t>
   </si>
   <si>
-    <t>Collect Zip Code</t>
-  </si>
-  <si>
-    <t>Contract Required</t>
-  </si>
-  <si>
-    <t>Daily Entry</t>
-  </si>
-  <si>
-    <t>Default Available Quantity</t>
-  </si>
-  <si>
-    <t>Dishes Cookware Utensils</t>
-  </si>
-  <si>
     <t>Dishwasher</t>
   </si>
   <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>Electricity Hookup</t>
   </si>
   <si>
-    <t>Equestrian Facility</t>
-  </si>
-  <si>
-    <t>Facility Access Method</t>
-  </si>
-  <si>
-    <t>Facility Rental Period</t>
-  </si>
-  <si>
     <t>Fire Ring</t>
   </si>
   <si>
-    <t>Full Bed</t>
-  </si>
-  <si>
-    <t>Full Hookup</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>Indoor Bathroom</t>
-  </si>
-  <si>
-    <t>Indoor Fireplace</t>
-  </si>
-  <si>
-    <t>Internet Access</t>
-  </si>
-  <si>
-    <t>Inventory Depletion</t>
-  </si>
-  <si>
-    <t>King Bed</t>
-  </si>
-  <si>
-    <t>Lantern Pole</t>
-  </si>
-  <si>
-    <t>Linens</t>
-  </si>
-  <si>
-    <t>Lockable Door</t>
-  </si>
-  <si>
     <t>Looking For Category</t>
   </si>
   <si>
@@ -198,30 +117,6 @@
     <t>Microwave</t>
   </si>
   <si>
-    <t>Natural Shade</t>
-  </si>
-  <si>
-    <t>Oven</t>
-  </si>
-  <si>
-    <t>Park Facility (site) ID</t>
-  </si>
-  <si>
-    <t>Parking Obstructions Horizontal (Road To Facility)</t>
-  </si>
-  <si>
-    <t>Parking Obstructions Vertical</t>
-  </si>
-  <si>
-    <t>Parking Spur Length</t>
-  </si>
-  <si>
-    <t>Parking Spur Width</t>
-  </si>
-  <si>
-    <t>Parking Surface</t>
-  </si>
-  <si>
     <t>Pets Allowed</t>
   </si>
   <si>
@@ -231,81 +126,21 @@
     <t>Placed on Map</t>
   </si>
   <si>
-    <t>Proximity to Restrooms (walking distance)</t>
-  </si>
-  <si>
-    <t>Queen Bed</t>
-  </si>
-  <si>
     <t>Refrigerator</t>
   </si>
   <si>
     <t>Restrooms</t>
   </si>
   <si>
-    <t>Sewer</t>
-  </si>
-  <si>
     <t>Sewer Hookup</t>
   </si>
   <si>
-    <t>Shade Shelter</t>
-  </si>
-  <si>
-    <t>Sink</t>
-  </si>
-  <si>
     <t>Site Reserve Type</t>
   </si>
   <si>
-    <t>Sofa Sleeper</t>
-  </si>
-  <si>
-    <t>Sort Order</t>
-  </si>
-  <si>
-    <t>Stove Top</t>
-  </si>
-  <si>
-    <t>Tent Pad #1 Size</t>
-  </si>
-  <si>
-    <t>Tent Pad #2 Size</t>
-  </si>
-  <si>
-    <t>Tent Pad #3 Size</t>
-  </si>
-  <si>
-    <t>Tent Pad #4 Size</t>
-  </si>
-  <si>
-    <t>Tents Allowed</t>
-  </si>
-  <si>
-    <t>Toilet</t>
-  </si>
-  <si>
-    <t>Total Quantity</t>
-  </si>
-  <si>
-    <t>Towels</t>
-  </si>
-  <si>
-    <t>Twin Bed</t>
-  </si>
-  <si>
     <t>Type of Use</t>
   </si>
   <si>
-    <t>Unlimited Available Quantity</t>
-  </si>
-  <si>
-    <t>Waist-High Grill</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Water Hookup</t>
   </si>
   <si>
@@ -484,19 +319,196 @@
   </si>
   <si>
     <t>VALUE</t>
+  </si>
+  <si>
+    <t>ADA Occupant Required</t>
+  </si>
+  <si>
+    <t>Air Conditioned/Heated</t>
+  </si>
+  <si>
+    <t>BBQ/Grill</t>
+  </si>
+  <si>
+    <t>Base Number of People</t>
+  </si>
+  <si>
+    <t>Base Number of Vehicles</t>
+  </si>
+  <si>
+    <t>Cable/Satellite Access</t>
+  </si>
+  <si>
+    <t>Comfort Station</t>
+  </si>
+  <si>
+    <t>Conference Equipment</t>
+  </si>
+  <si>
+    <t>Current Negative Coggins Test Required</t>
+  </si>
+  <si>
+    <t>DVD</t>
+  </si>
+  <si>
+    <t>Dining Hall/Kitchen</t>
+  </si>
+  <si>
+    <t>Dishes</t>
+  </si>
+  <si>
+    <t>Driveway Entry</t>
+  </si>
+  <si>
+    <t>Electricity Available</t>
+  </si>
+  <si>
+    <t>FRTrigger</t>
+  </si>
+  <si>
+    <t>Fireplace</t>
+  </si>
+  <si>
+    <t>Furnished</t>
+  </si>
+  <si>
+    <t>Groups Only</t>
+  </si>
+  <si>
+    <t>Heated</t>
+  </si>
+  <si>
+    <t>Hike In Arrival Time</t>
+  </si>
+  <si>
+    <t>Hike In Distance to Site</t>
+  </si>
+  <si>
+    <t>Hike Type</t>
+  </si>
+  <si>
+    <t>Horse Hitching Post</t>
+  </si>
+  <si>
+    <t>Kitchen Utensils</t>
+  </si>
+  <si>
+    <t>Linens Provided</t>
+  </si>
+  <si>
+    <t>Maximum Stay (# of nights)</t>
+  </si>
+  <si>
+    <t>Minimum Number of People</t>
+  </si>
+  <si>
+    <t>Minimum Number of Vehicles</t>
+  </si>
+  <si>
+    <t>Minimum Stay (# of nights)</t>
+  </si>
+  <si>
+    <t>Non Smoking</t>
+  </si>
+  <si>
+    <t>Num of Picnic Tables</t>
+  </si>
+  <si>
+    <t>Number of Adirondack Shelters</t>
+  </si>
+  <si>
+    <t>Number of Bathrooms</t>
+  </si>
+  <si>
+    <t>Number of Bedrooms</t>
+  </si>
+  <si>
+    <t>Number of Beds</t>
+  </si>
+  <si>
+    <t>Number of Camper Cabins</t>
+  </si>
+  <si>
+    <t>Number of Lodge Cabins</t>
+  </si>
+  <si>
+    <t>Number of Staff Buildings</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Playgrounds</t>
+  </si>
+  <si>
+    <t>Porch</t>
+  </si>
+  <si>
+    <t>Pots/Pans</t>
+  </si>
+  <si>
+    <t>Proximity to Water</t>
+  </si>
+  <si>
+    <t>Reservable</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>Shelter Type</t>
+  </si>
+  <si>
+    <t>Shower Facilities Available</t>
+  </si>
+  <si>
+    <t>Shower/Bath Type</t>
+  </si>
+  <si>
+    <t>Site Height/Overhead Clearance</t>
+  </si>
+  <si>
+    <t>Site Width</t>
+  </si>
+  <si>
+    <t>SiteType</t>
+  </si>
+  <si>
+    <t>Stove/Oven</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Table chairs</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Water Available</t>
+  </si>
+  <si>
+    <t>WiFi Access</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -519,8 +531,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,10 +912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1944E84-506C-47F3-A406-A81DDAF45E52}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,655 +928,665 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>94</v>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>74</v>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
-        <v>67</v>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>91</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
-        <v>52</v>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>101</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>102</v>
       </c>
-      <c r="B15" t="s">
-        <v>90</v>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>109</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>114</v>
       </c>
-      <c r="B18" t="s">
-        <v>68</v>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>128</v>
       </c>
-      <c r="B19" t="s">
-        <v>49</v>
+      <c r="B19" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>216</v>
       </c>
-      <c r="B20" t="s">
-        <v>77</v>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>218</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
-        <v>66</v>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>229</v>
       </c>
-      <c r="B23" t="s">
-        <v>16</v>
+      <c r="B23" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>232</v>
       </c>
-      <c r="B24" t="s">
-        <v>86</v>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>239</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
+      <c r="B25" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1204</v>
       </c>
-      <c r="B26" t="s">
-        <v>88</v>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2129</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2142</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2145</v>
       </c>
-      <c r="B29" t="s">
-        <v>78</v>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2557</v>
       </c>
-      <c r="B30" t="s">
-        <v>23</v>
+      <c r="B30" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2582</v>
       </c>
-      <c r="B31" t="s">
-        <v>72</v>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2620</v>
       </c>
-      <c r="B32" t="s">
-        <v>39</v>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2780</v>
       </c>
-      <c r="B33" t="s">
-        <v>48</v>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3074</v>
       </c>
-      <c r="B34" t="s">
-        <v>73</v>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>3164</v>
       </c>
-      <c r="B35" t="s">
-        <v>85</v>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>8421</v>
       </c>
-      <c r="B36" t="s">
-        <v>34</v>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8526</v>
       </c>
-      <c r="B37" t="s">
-        <v>30</v>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8527</v>
       </c>
-      <c r="B38" t="s">
-        <v>17</v>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>8528</v>
       </c>
-      <c r="B39" t="s">
-        <v>28</v>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8685</v>
       </c>
-      <c r="B40" t="s">
-        <v>26</v>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9471</v>
       </c>
-      <c r="B41" t="s">
-        <v>79</v>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>9472</v>
       </c>
-      <c r="B42" t="s">
-        <v>46</v>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>9496</v>
       </c>
-      <c r="B43" t="s">
-        <v>47</v>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>9497</v>
       </c>
-      <c r="B44" t="s">
-        <v>70</v>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>9498</v>
       </c>
-      <c r="B45" t="s">
-        <v>40</v>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>10024</v>
       </c>
-      <c r="B46" t="s">
-        <v>31</v>
+      <c r="B46" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10028</v>
       </c>
-      <c r="B47" t="s">
-        <v>87</v>
+      <c r="B47" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10035</v>
       </c>
-      <c r="B48" t="s">
-        <v>91</v>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>10269</v>
       </c>
-      <c r="B49" t="s">
-        <v>29</v>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>12073</v>
       </c>
-      <c r="B50" t="s">
-        <v>80</v>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>12101</v>
       </c>
-      <c r="B51" t="s">
-        <v>18</v>
+      <c r="B51" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>12102</v>
       </c>
-      <c r="B52" t="s">
-        <v>19</v>
+      <c r="B52" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12103</v>
       </c>
-      <c r="B53" t="s">
-        <v>21</v>
+      <c r="B53" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>12104</v>
       </c>
-      <c r="B54" t="s">
-        <v>36</v>
+      <c r="B54" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>12105</v>
       </c>
-      <c r="B55" t="s">
-        <v>37</v>
+      <c r="B55" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>12106</v>
       </c>
-      <c r="B56" t="s">
-        <v>38</v>
+      <c r="B56" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>12107</v>
       </c>
-      <c r="B57" t="s">
-        <v>43</v>
+      <c r="B57" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>12108</v>
       </c>
-      <c r="B58" t="s">
-        <v>44</v>
+      <c r="B58" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>12109</v>
       </c>
-      <c r="B59" t="s">
-        <v>50</v>
+      <c r="B59" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>12112</v>
       </c>
-      <c r="B60" t="s">
-        <v>58</v>
+      <c r="B60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>12113</v>
       </c>
-      <c r="B61" t="s">
-        <v>60</v>
+      <c r="B61" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>12114</v>
       </c>
-      <c r="B62" t="s">
-        <v>61</v>
+      <c r="B62" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>12115</v>
       </c>
-      <c r="B63" t="s">
-        <v>62</v>
+      <c r="B63" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>12116</v>
       </c>
-      <c r="B64" t="s">
-        <v>63</v>
+      <c r="B64" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>12117</v>
       </c>
-      <c r="B65" t="s">
-        <v>64</v>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>12118</v>
       </c>
-      <c r="B66" t="s">
-        <v>65</v>
+      <c r="B66" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>12119</v>
       </c>
-      <c r="B67" t="s">
-        <v>75</v>
+      <c r="B67" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>12121</v>
       </c>
-      <c r="B68" t="s">
-        <v>81</v>
+      <c r="B68" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>12122</v>
       </c>
-      <c r="B69" t="s">
-        <v>82</v>
+      <c r="B69" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>12123</v>
       </c>
-      <c r="B70" t="s">
-        <v>83</v>
+      <c r="B70" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>12124</v>
       </c>
-      <c r="B71" t="s">
-        <v>84</v>
+      <c r="B71" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>12125</v>
       </c>
-      <c r="B72" t="s">
-        <v>89</v>
+      <c r="B72" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>12126</v>
       </c>
-      <c r="B73" t="s">
-        <v>92</v>
+      <c r="B73" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>12127</v>
       </c>
-      <c r="B74" t="s">
-        <v>32</v>
+      <c r="B74" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>12128</v>
       </c>
-      <c r="B75" t="s">
-        <v>93</v>
+      <c r="B75" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>12131</v>
       </c>
-      <c r="B76" t="s">
-        <v>20</v>
+      <c r="B76" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>12132</v>
       </c>
-      <c r="B77" t="s">
-        <v>15</v>
+      <c r="B77" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>99999</v>
       </c>
-      <c r="B78" t="s">
-        <v>51</v>
+      <c r="B78" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>308010</v>
       </c>
-      <c r="B79" t="s">
-        <v>27</v>
+      <c r="B79" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>308015</v>
       </c>
-      <c r="B80" t="s">
-        <v>71</v>
+      <c r="B80" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>308024</v>
       </c>
-      <c r="B81" t="s">
-        <v>33</v>
+      <c r="B81" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>308057</v>
       </c>
-      <c r="B82" t="s">
-        <v>69</v>
+      <c r="B82" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1604,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1612,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1620,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1628,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1636,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1644,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1652,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1660,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1668,7 +1693,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1676,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1684,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1692,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1700,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1708,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1716,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1724,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1732,7 +1757,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1740,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1748,7 +1773,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1756,7 +1781,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1764,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1772,7 +1797,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1780,7 +1805,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1804,7 +1829,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1812,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1820,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1828,7 +1853,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1836,7 +1861,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1844,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1852,7 +1877,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1860,7 +1885,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1876,7 +1901,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1884,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1892,7 +1917,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1900,7 +1925,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1908,7 +1933,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1916,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1924,7 +1949,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1932,7 +1957,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1940,7 +1965,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1948,7 +1973,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1956,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1964,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1972,7 +1997,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1980,7 +2005,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1988,7 +2013,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1996,7 +2021,7 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2004,7 +2029,7 @@
         <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2012,7 +2037,7 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2020,7 +2045,7 @@
         <v>103</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2028,7 +2053,7 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2036,7 +2061,7 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2044,7 +2069,7 @@
         <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -2052,7 +2077,7 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -2060,7 +2085,7 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -2068,7 +2093,7 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -2076,7 +2101,7 @@
         <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
